--- a/data/derived-data/screen_test_list/test-list_screened.xlsx
+++ b/data/derived-data/screen_test_list/test-list_screened.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\OBS_scoping_search\scoping-searches\iteration-6\derived_data\screen_test_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deviv\R-working-folder\OBS_systematic_map\data\derived-data\screen_test_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="557">
   <si>
     <t>STUDY_ID</t>
   </si>
@@ -1150,18 +1150,6 @@
   </si>
   <si>
     <t>Assessing the coastal protection services of natural mangrove forests and artificial rock revetments</t>
-  </si>
-  <si>
-    <t>Layman, Craig A and Jud, Zachary R and Archer, Stephanie K and Riera, David</t>
-  </si>
-  <si>
-    <t>10.1088/1748-9326/9/4/044009</t>
-  </si>
-  <si>
-    <t>https://iopscience.iop.org/article/10.1088/1748-9326/9/4/044009</t>
-  </si>
-  <si>
-    <t>Provision of ecosystem services by human-made structures in a highly impacted estuary</t>
   </si>
   <si>
     <t>Piazza, Bryan P. and Banks, Patrick D. and La Peyre, Megan K.</t>
@@ -2508,10 +2496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2690,22 +2678,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="E6">
         <v>2017</v>
       </c>
       <c r="F6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="J6">
         <v>114</v>
@@ -2722,22 +2710,22 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E7">
         <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="I7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J7">
         <v>84</v>
@@ -2818,22 +2806,22 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E10">
         <v>2022</v>
       </c>
       <c r="F10" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H10" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I10" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J10">
         <v>81</v>
@@ -2850,22 +2838,22 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E11">
         <v>2020</v>
       </c>
       <c r="F11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J11">
         <v>105</v>
@@ -3266,22 +3254,22 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E24">
         <v>2017</v>
       </c>
       <c r="F24" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G24" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H24" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I24" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J24">
         <v>103</v>
@@ -3394,22 +3382,22 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E28">
         <v>2017</v>
       </c>
       <c r="F28" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="H28" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="I28" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="J28">
         <v>107</v>
@@ -3426,22 +3414,22 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E29">
         <v>2018</v>
       </c>
       <c r="F29" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G29" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H29" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="I29" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J29">
         <v>95</v>
@@ -3522,22 +3510,22 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E32">
         <v>2021</v>
       </c>
       <c r="F32" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H32" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I32" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J32">
         <v>112</v>
@@ -3618,22 +3606,22 @@
         <v>17</v>
       </c>
       <c r="D35" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E35">
         <v>2021</v>
       </c>
       <c r="F35" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G35" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H35" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I35" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J35">
         <v>113</v>
@@ -3746,22 +3734,22 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E39">
         <v>2019</v>
       </c>
       <c r="F39" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G39" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H39" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="I39" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J39">
         <v>89</v>
@@ -3778,22 +3766,22 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E40">
         <v>2020</v>
       </c>
       <c r="F40" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G40" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="H40" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="I40" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J40">
         <v>80</v>
@@ -3810,22 +3798,22 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E41">
         <v>2016</v>
       </c>
       <c r="F41" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H41" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="I41" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J41">
         <v>94</v>
@@ -3842,22 +3830,22 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E42">
         <v>2021</v>
       </c>
       <c r="F42" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G42" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H42" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I42" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="J42">
         <v>116</v>
@@ -3906,22 +3894,22 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E44">
         <v>2020</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G44" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H44" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="I44" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J44">
         <v>88</v>
@@ -3938,22 +3926,22 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E45">
         <v>2012</v>
       </c>
       <c r="F45" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G45" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H45" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="I45" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J45">
         <v>100</v>
@@ -4098,22 +4086,22 @@
         <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E50">
         <v>2020</v>
       </c>
       <c r="F50" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G50" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="H50" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="I50" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J50">
         <v>109</v>
@@ -4162,22 +4150,22 @@
         <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E52">
         <v>2022</v>
       </c>
       <c r="F52" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G52" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H52" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I52" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J52">
         <v>106</v>
@@ -4194,22 +4182,22 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E53">
         <v>2019</v>
       </c>
       <c r="F53" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G53" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H53" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I53" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J53">
         <v>82</v>
@@ -4226,22 +4214,22 @@
         <v>17</v>
       </c>
       <c r="D54" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E54">
         <v>2020</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G54" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H54" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="I54" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J54">
         <v>102</v>
@@ -4319,25 +4307,25 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D57" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E57">
         <v>2022</v>
       </c>
       <c r="F57" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G57" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H57" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="I57" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="J57">
         <v>115</v>
@@ -4354,22 +4342,22 @@
         <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E58">
         <v>2010</v>
       </c>
       <c r="F58" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G58" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H58" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="I58" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J58">
         <v>92</v>
@@ -4386,22 +4374,22 @@
         <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E59">
         <v>2018</v>
       </c>
       <c r="F59" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G59" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H59" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="I59" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J59">
         <v>96</v>
@@ -4418,22 +4406,22 @@
         <v>17</v>
       </c>
       <c r="D60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E60">
         <v>2019</v>
       </c>
       <c r="F60" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G60" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H60" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="I60" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J60">
         <v>86</v>
@@ -4450,22 +4438,22 @@
         <v>17</v>
       </c>
       <c r="D61" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E61">
         <v>2019</v>
       </c>
       <c r="F61" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G61" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H61" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I61" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="J61">
         <v>111</v>
@@ -4482,22 +4470,22 @@
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E62">
         <v>2016</v>
       </c>
       <c r="F62" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G62" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H62" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I62" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J62">
         <v>91</v>
@@ -4674,22 +4662,22 @@
         <v>17</v>
       </c>
       <c r="D68" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E68">
         <v>2020</v>
       </c>
       <c r="F68" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G68" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H68" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I68" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J68">
         <v>83</v>
@@ -4706,22 +4694,22 @@
         <v>17</v>
       </c>
       <c r="D69" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E69">
         <v>2020</v>
       </c>
       <c r="F69" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G69" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H69" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="I69" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J69">
         <v>87</v>
@@ -4994,22 +4982,22 @@
         <v>17</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E78">
         <v>2022</v>
       </c>
       <c r="F78" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G78" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H78" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="I78" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J78">
         <v>99</v>
@@ -5049,7 +5037,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -5058,30 +5046,30 @@
         <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="E80">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="F80" t="s">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>379</v>
+        <v>40</v>
       </c>
       <c r="H80" t="s">
-        <v>380</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="J80">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -5090,30 +5078,30 @@
         <v>17</v>
       </c>
       <c r="D81" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="E81">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="H81" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J81">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -5122,94 +5110,94 @@
         <v>17</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="E82">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F82" t="s">
-        <v>124</v>
+        <v>306</v>
       </c>
       <c r="G82" t="s">
-        <v>125</v>
+        <v>307</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>308</v>
       </c>
       <c r="I82" t="s">
-        <v>127</v>
+        <v>309</v>
       </c>
       <c r="J82">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="E83">
         <v>2020</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="J83">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="E84">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="G84" t="s">
-        <v>14</v>
+        <v>346</v>
       </c>
       <c r="H84" t="s">
-        <v>15</v>
+        <v>347</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -5218,94 +5206,94 @@
         <v>17</v>
       </c>
       <c r="D85" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="E85">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="F85" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="G85" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H85" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="I85" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="J85">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="E86">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="F86" t="s">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="G86" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="I86" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="J86">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>320</v>
       </c>
       <c r="E87">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>321</v>
       </c>
       <c r="G87" t="s">
-        <v>177</v>
+        <v>322</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="I87" t="s">
-        <v>179</v>
+        <v>309</v>
       </c>
       <c r="J87">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -5314,30 +5302,30 @@
         <v>17</v>
       </c>
       <c r="D88" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E88">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="F88" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G88" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H88" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I88" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="J88">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -5346,30 +5334,30 @@
         <v>17</v>
       </c>
       <c r="D89" t="s">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="E89">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="F89" t="s">
-        <v>316</v>
+        <v>221</v>
       </c>
       <c r="G89" t="s">
-        <v>317</v>
+        <v>222</v>
       </c>
       <c r="H89" t="s">
-        <v>318</v>
+        <v>223</v>
       </c>
       <c r="I89" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="J89">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -5378,30 +5366,30 @@
         <v>17</v>
       </c>
       <c r="D90" t="s">
-        <v>220</v>
+        <v>476</v>
       </c>
       <c r="E90">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F90" t="s">
-        <v>221</v>
+        <v>477</v>
       </c>
       <c r="G90" t="s">
-        <v>222</v>
+        <v>478</v>
       </c>
       <c r="H90" t="s">
-        <v>223</v>
+        <v>479</v>
       </c>
       <c r="I90" t="s">
-        <v>224</v>
+        <v>480</v>
       </c>
       <c r="J90">
-        <v>42</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -5410,126 +5398,126 @@
         <v>17</v>
       </c>
       <c r="D91" t="s">
-        <v>480</v>
+        <v>78</v>
       </c>
       <c r="E91">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="F91" t="s">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s">
-        <v>483</v>
+        <v>81</v>
       </c>
       <c r="I91" t="s">
-        <v>484</v>
+        <v>82</v>
       </c>
       <c r="J91">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="E92">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F92" t="s">
+        <v>382</v>
+      </c>
+      <c r="G92" t="s">
+        <v>383</v>
+      </c>
+      <c r="H92" t="s">
+        <v>384</v>
+      </c>
+      <c r="I92" t="s">
+        <v>385</v>
+      </c>
+      <c r="J92">
         <v>79</v>
-      </c>
-      <c r="G92" t="s">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s">
-        <v>81</v>
-      </c>
-      <c r="I92" t="s">
-        <v>82</v>
-      </c>
-      <c r="J92">
-        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>385</v>
+        <v>139</v>
       </c>
       <c r="E93">
         <v>2019</v>
       </c>
       <c r="F93" t="s">
-        <v>386</v>
+        <v>140</v>
       </c>
       <c r="G93" t="s">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="H93" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="I93" t="s">
-        <v>389</v>
+        <v>143</v>
       </c>
       <c r="J93">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E94">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F94" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="G94" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="H94" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="I94" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="J94">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -5538,30 +5526,30 @@
         <v>17</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>411</v>
       </c>
       <c r="E95">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>412</v>
       </c>
       <c r="G95" t="s">
-        <v>166</v>
+        <v>413</v>
       </c>
       <c r="H95" t="s">
-        <v>167</v>
+        <v>414</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
+        <v>415</v>
       </c>
       <c r="J95">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -5570,30 +5558,30 @@
         <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>415</v>
+        <v>511</v>
       </c>
       <c r="E96">
         <v>2015</v>
       </c>
       <c r="F96" t="s">
-        <v>416</v>
+        <v>512</v>
       </c>
       <c r="G96" t="s">
-        <v>417</v>
+        <v>513</v>
       </c>
       <c r="H96" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="I96" t="s">
-        <v>419</v>
+        <v>515</v>
       </c>
       <c r="J96">
-        <v>85</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -5602,30 +5590,30 @@
         <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>515</v>
+        <v>128</v>
       </c>
       <c r="E97">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F97" t="s">
-        <v>516</v>
+        <v>129</v>
       </c>
       <c r="G97" t="s">
-        <v>517</v>
+        <v>130</v>
       </c>
       <c r="H97" t="s">
-        <v>518</v>
+        <v>131</v>
       </c>
       <c r="I97" t="s">
-        <v>519</v>
+        <v>132</v>
       </c>
       <c r="J97">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -5634,30 +5622,30 @@
         <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="E98">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="J98">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -5666,30 +5654,30 @@
         <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
       <c r="E99">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
+        <v>437</v>
       </c>
       <c r="G99" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
       <c r="H99" t="s">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="I99" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
       <c r="J99">
-        <v>51</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -5698,30 +5686,30 @@
         <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="E100">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F100" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="G100" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="H100" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
       <c r="I100" t="s">
-        <v>444</v>
+        <v>495</v>
       </c>
       <c r="J100">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -5730,30 +5718,30 @@
         <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>495</v>
+        <v>83</v>
       </c>
       <c r="E101">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F101" t="s">
-        <v>496</v>
+        <v>84</v>
       </c>
       <c r="G101" t="s">
-        <v>497</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>498</v>
+        <v>86</v>
       </c>
       <c r="I101" t="s">
-        <v>499</v>
+        <v>87</v>
       </c>
       <c r="J101">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -5762,30 +5750,30 @@
         <v>17</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="E102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="G102" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="H102" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="I102" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="J102">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -5794,30 +5782,30 @@
         <v>17</v>
       </c>
       <c r="D103" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="E103">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="F103" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
       <c r="H103" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="I103" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
       <c r="J103">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -5826,30 +5814,30 @@
         <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="F104" t="s">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="G104" t="s">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="H104" t="s">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="I104" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="J104">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -5858,30 +5846,30 @@
         <v>17</v>
       </c>
       <c r="D105" t="s">
-        <v>381</v>
+        <v>290</v>
       </c>
       <c r="E105">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="F105" t="s">
-        <v>382</v>
+        <v>291</v>
       </c>
       <c r="G105" t="s">
-        <v>383</v>
+        <v>292</v>
       </c>
       <c r="H105" t="s">
-        <v>384</v>
+        <v>293</v>
       </c>
       <c r="I105" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="J105">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B106" t="s">
         <v>10</v>
@@ -5890,30 +5878,30 @@
         <v>17</v>
       </c>
       <c r="D106" t="s">
-        <v>290</v>
+        <v>352</v>
       </c>
       <c r="E106">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="F106" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
       <c r="G106" t="s">
-        <v>292</v>
+        <v>354</v>
       </c>
       <c r="H106" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
       <c r="I106" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="J106">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -5922,30 +5910,30 @@
         <v>17</v>
       </c>
       <c r="D107" t="s">
-        <v>352</v>
+        <v>521</v>
       </c>
       <c r="E107">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F107" t="s">
-        <v>353</v>
+        <v>522</v>
       </c>
       <c r="G107" t="s">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="H107" t="s">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="I107" t="s">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="J107">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -5954,30 +5942,30 @@
         <v>17</v>
       </c>
       <c r="D108" t="s">
-        <v>525</v>
+        <v>108</v>
       </c>
       <c r="E108">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F108" t="s">
-        <v>526</v>
+        <v>109</v>
       </c>
       <c r="G108" t="s">
-        <v>527</v>
+        <v>110</v>
       </c>
       <c r="H108" t="s">
-        <v>528</v>
+        <v>111</v>
       </c>
       <c r="I108" t="s">
-        <v>529</v>
+        <v>112</v>
       </c>
       <c r="J108">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -5986,30 +5974,30 @@
         <v>17</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="E109">
         <v>2022</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="H109" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="I109" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="J109">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -6018,30 +6006,30 @@
         <v>17</v>
       </c>
       <c r="D110" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="E110">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="H110" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="I110" t="s">
-        <v>22</v>
+        <v>264</v>
       </c>
       <c r="J110">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -6050,56 +6038,24 @@
         <v>17</v>
       </c>
       <c r="D111" t="s">
-        <v>260</v>
+        <v>98</v>
       </c>
       <c r="E111">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F111" t="s">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>100</v>
       </c>
       <c r="H111" t="s">
-        <v>263</v>
+        <v>101</v>
       </c>
       <c r="I111" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="J111">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>18</v>
-      </c>
-      <c r="B112" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" t="s">
-        <v>17</v>
-      </c>
-      <c r="D112" t="s">
-        <v>98</v>
-      </c>
-      <c r="E112">
-        <v>2022</v>
-      </c>
-      <c r="F112" t="s">
-        <v>99</v>
-      </c>
-      <c r="G112" t="s">
-        <v>100</v>
-      </c>
-      <c r="H112" t="s">
-        <v>101</v>
-      </c>
-      <c r="I112" t="s">
-        <v>102</v>
-      </c>
-      <c r="J112">
         <v>18</v>
       </c>
     </row>
